--- a/spreadsheet/macrofree/redis_resiliency_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.pt.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Redundância de zona</t>
+          <t>Gestão de operações</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Zonas de disponibilidade</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Persistência</t>
+          <t>Gestão de operações</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Persistência de dados</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
@@ -1124,7 +1124,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#persistence</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1143,17 +1143,17 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Persistência</t>
+          <t>Gestão de operações</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Armazenamento com redundância geográfica</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Usar conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
+          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1166,7 +1166,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#storage-account-for-persistence</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1185,12 +1185,12 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
+          <t>Gestão de operações</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
           <t>Replicação geográfica</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Redundância de zona</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Persistência</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Replicação geográfica</t>
+          <t>Gestão de operações</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6082,6 +6082,11 @@
           <t>Não é necessário</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Automação de Plataformas</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
@@ -6097,6 +6102,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/redis_resiliency_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.pt.xlsx
@@ -1059,21 +1059,25 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidade</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
+          <t>Habilite a redundância de zona para o Cache do Azure para Redis. O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1101,21 +1105,25 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Persistência de dados</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
+          <t>Configure a persistência de dados para uma instância do Cache do Azure para Redis. Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1143,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento com redundância geográfica</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1157,7 +1165,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -1185,21 +1197,25 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Replicação geográfica</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
+          <t>Configure a replicação geográfica passiva para instâncias do Cache Premium do Azure para Redis. A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -5922,7 +5938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gestão de operações</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6084,7 +6100,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Automação de Plataformas</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6117,6 +6133,20 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
     </row>
